--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\Claes\RoboticEnterpriseFramework-Windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\Jonas\RPA_IAF_Rakel_Hamta_Meddelande_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
   </si>
   <si>
@@ -119,9 +115,6 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
   </si>
   <si>
@@ -158,9 +151,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
     <t>Environment</t>
   </si>
   <si>
@@ -171,6 +161,33 @@
   </si>
   <si>
     <t>The number of retries to try to init all applications. To disable this feature, set the value to 0</t>
+  </si>
+  <si>
+    <t>LatestRun</t>
+  </si>
+  <si>
+    <t>Meddelanden och bilagor dispatcher</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueNameDispatcher</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueNamePerformer</t>
+  </si>
+  <si>
+    <t>Meddelanden och bilagor performer</t>
+  </si>
+  <si>
+    <t>FamilyID</t>
+  </si>
+  <si>
+    <t>StatusesToGetCases</t>
+  </si>
+  <si>
+    <t>OeP_URL</t>
+  </si>
+  <si>
+    <t>Cred_NA_OeP</t>
   </si>
 </sst>
 </file>
@@ -548,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -596,10 +613,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -607,11 +624,13 @@
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -627,7 +646,14 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1630,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1684,29 +1710,29 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="36" customHeight="1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1730,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1752,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1763,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1774,53 +1800,53 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:3" ht="45">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2806,7 +2832,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2825,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2855,19 +2881,47 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -115,9 +115,6 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-  </si>
-  <si>
     <t>MaxConsecutiveSystemExceptions</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Cred_NA_OeP</t>
+  </si>
+  <si>
+    <t>HowFarBackWhenGettingCases</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -613,25 +613,23 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="30">
@@ -648,10 +646,10 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1715,24 +1713,24 @@
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="36" customHeight="1">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1805,48 +1803,48 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:3" ht="45">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2832,7 +2830,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2881,48 +2879,55 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -163,18 +163,12 @@
     <t>LatestRun</t>
   </si>
   <si>
-    <t>Meddelanden och bilagor dispatcher</t>
-  </si>
-  <si>
     <t>OrchestratorQueueNameDispatcher</t>
   </si>
   <si>
     <t>OrchestratorQueueNamePerformer</t>
   </si>
   <si>
-    <t>Meddelanden och bilagor performer</t>
-  </si>
-  <si>
     <t>FamilyID</t>
   </si>
   <si>
@@ -188,6 +182,12 @@
   </si>
   <si>
     <t>HowFarBackWhenGettingCases</t>
+  </si>
+  <si>
+    <t>Meddelanden och bilagor Dispatcher</t>
+  </si>
+  <si>
+    <t>Meddelanden och bilagor Performer</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -613,10 +613,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -646,10 +646,10 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2898,34 +2898,34 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -86,9 +86,6 @@
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Meddelanden och bilagor Performer</t>
+  </si>
+  <si>
+    <t>Rakel Meddelanden och Bilagor Performer Dispatcher</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -613,21 +613,21 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -637,19 +637,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1708,29 +1708,29 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="36" customHeight="1">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1754,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1776,7 +1776,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1787,7 +1787,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1798,53 +1798,53 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:3" ht="45">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2849,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2879,53 +2879,53 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Rakel Meddelanden och Bilagor Performer Dispatcher</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1654,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1840,8 +1843,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="b">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>38</v>
